--- a/DOCUMENTATION/Defect_Tracker.xlsx
+++ b/DOCUMENTATION/Defect_Tracker.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
   <si>
     <t>Sl No</t>
   </si>
@@ -49,7 +49,25 @@
     <t>Intern</t>
   </si>
   <si>
-    <t>KeyError: 'demand_factor' when fetching flights after initial DB setup.</t>
+    <t>Error: table user has no column named profile_data during DB initialization.</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Standards</t>
+  </si>
+  <si>
+    <t>Cleaned db.sql by dropping all tables and correcting INSERT statements to use full_name, phone, country schema.</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Fixed schema migration error.</t>
+  </si>
+  <si>
+    <t>KeyError: 'demand_factor' when fetching flights.</t>
   </si>
   <si>
     <t>Sprint 2</t>
@@ -61,49 +79,193 @@
     <t>Added demand_factor column via ALTER TABLE to resolve schema mismatch.</t>
   </si>
   <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>Resolved DB/code mismatch.</t>
-  </si>
-  <si>
-    <t>AttributeError: 'NoneType' object has no attribute 'get' in cancellation/history section.</t>
+    <t>Backend logic fix.</t>
+  </si>
+  <si>
+    <t>Price display in search results table shows two overlapping currency values.</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>Consolidated multiple st.write() calls in the price column to a single, formatted output.</t>
+  </si>
+  <si>
+    <t>UI rendering artifact resolved.</t>
+  </si>
+  <si>
+    <t>AttributeError: 'NoneType' object has no attribute 'get' when canceling a pending booking.</t>
+  </si>
+  <si>
+    <t>Runtime</t>
+  </si>
+  <si>
+    <t>Added if cancel_result: check to safely handle None return from api_request.</t>
+  </si>
+  <si>
+    <t>Frontend API response handling issue.</t>
+  </si>
+  <si>
+    <t>Autocomplete select boxes fail to load the full list of airport destinations reliably.</t>
+  </si>
+  <si>
+    <t>Verified fetch_airports uses api_request with method='GET' correctly.</t>
+  </si>
+  <si>
+    <t>API call integration verified.</t>
+  </si>
+  <si>
+    <t>Payment not confirming due to hardcoded user_id=1 in POST /bookings.</t>
   </si>
   <si>
     <t>Sprint 3</t>
   </si>
   <si>
-    <t>Runtime</t>
-  </si>
-  <si>
-    <t>Added if cancel_result: check to safely handle None return from API helper.</t>
-  </si>
-  <si>
-    <t>Resolved Frontend null pointer crash.</t>
-  </si>
-  <si>
-    <t>Transaction History Not Showing due to incorrect user_id being used (hardcoded ID=1 instead of logged-in user's ID).</t>
-  </si>
-  <si>
     <t>Data Logic</t>
   </si>
   <si>
-    <t>Updated BookingRequest Pydantic model and create_booking function to use request.user_id.</t>
-  </si>
-  <si>
-    <t>Resolved Critical History Mismatch.</t>
-  </si>
-  <si>
-    <t>Frontend Price Serialization Crash (ArrowInvalid) on displaying DataFrames containing formatted currency ($X.XX).</t>
-  </si>
-  <si>
-    <t>Compatibility</t>
-  </si>
-  <si>
-    <t>Applied .astype(str) conversion to currency columns in display_flights_data and history module to enforce string type for PyArrow.</t>
-  </si>
-  <si>
-    <t>Resolved Streamlit data type incompatibility.</t>
+    <t>Updated BookingRequest and POST /bookings to receive and use the dynamic user_id from the frontend session.</t>
+  </si>
+  <si>
+    <t>Resolved critical user ID mismatch.</t>
+  </si>
+  <si>
+    <t>Confirmed bookings not visible in history due to status filter (CONFIRMED).</t>
+  </si>
+  <si>
+    <t>Logical</t>
+  </si>
+  <si>
+    <t>Updated GET /bookings/history to use the robust SQL filter: UPPER(b.status) LIKE '%CONFIRMED%'.</t>
+  </si>
+  <si>
+    <t>Fixed SQL case-sensitivity error.</t>
+  </si>
+  <si>
+    <t>Clicking "Book Now" in search results disappears immediately (state reset).</t>
+  </si>
+  <si>
+    <t>Reworked "Book Now" logic using stable st.form + st.selectbox pattern to guarantee state transfer (autofill_flight_id).</t>
+  </si>
+  <si>
+    <t>Fixed Streamlit session state leak on interaction.</t>
+  </si>
+  <si>
+    <t>Final PDF ticket uses the username instead of the user's first name + last name.</t>
+  </si>
+  <si>
+    <t>Updated POST /bookings to save passenger_full_name and updated generate_ticket_pdf to use this new column.</t>
+  </si>
+  <si>
+    <t>Ticket generation fidelity ensured.</t>
+  </si>
+  <si>
+    <t>Cancellation endpoint returns Operation Failed: Method Not Allowed.</t>
+  </si>
+  <si>
+    <t>Updated frontend.py to use api_request(..., method='DELETE') instead of method='POST' for cancellation.</t>
+  </si>
+  <si>
+    <t>Fixed incorrect HTTP method call.</t>
+  </si>
+  <si>
+    <t>Initial UI Banner Image does not use the correct compatible parameter.</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Replaced deprecated use_column_width with use_container_width=True in st.image calls.</t>
+  </si>
+  <si>
+    <t>Fixed deprecation warning.</t>
+  </si>
+  <si>
+    <t>AI Chatbot fails with Gemini API key not configured on server.</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Verified GEMINI_API_KEY was set as an environment variable in the terminal session before running uvicorn.</t>
+  </si>
+  <si>
+    <t>Resolved environment configuration failure.</t>
+  </si>
+  <si>
+    <t>User registration form shows password and username but is missing new fields (Name, Phone, Country).</t>
+  </si>
+  <si>
+    <t>Updated the registration form HTML elements in frontend.py to include inputs for full_name, phone, and country.</t>
+  </si>
+  <si>
+    <t>UI updated to reflect new schema fields.</t>
+  </si>
+  <si>
+    <t>ArrowInvalid crash in search results caused by PyArrow trying to convert currency to float.</t>
+  </si>
+  <si>
+    <t>Serialization</t>
+  </si>
+  <si>
+    <t>Applied .astype(str) conversion to all currency columns in display_flights_data and history tables.</t>
+  </si>
+  <si>
+    <t>Fixed PyArrow/Pandas serialization crash.</t>
+  </si>
+  <si>
+    <t>Domestic/International flight list filter is not working correctly.</t>
+  </si>
+  <si>
+    <t>Debugged Python filter logic to ensure ', India' check is applied correctly to both from and to fields.</t>
+  </si>
+  <si>
+    <t>Fixed Python string matching error.</t>
+  </si>
+  <si>
+    <t>Footer overlaps with the bottom of long pages (small screens).</t>
+  </si>
+  <si>
+    <t>Added custom CSS to fix footer position and increased padding-bottom in the main container to prevent overlap.</t>
+  </si>
+  <si>
+    <t>Fixed layout overlap.</t>
+  </si>
+  <si>
+    <t>Search form logic fails when user uses the Selectbox after typing in the input box (interaction conflict).</t>
+  </si>
+  <si>
+    <t>Simplified the search input on the landing page to rely only on two select boxes (st.selectbox) instead of complex typing/filtering combination.</t>
+  </si>
+  <si>
+    <t>Fixed interaction conflict on landing page.</t>
+  </si>
+  <si>
+    <t>When navigating to History/Cancel, the tab often defaults to "Cancellation History" even if no records exist.</t>
+  </si>
+  <si>
+    <t>Ensured the initial active tab logic prioritizes "Confirmed Bookings" if any data exists.</t>
+  </si>
+  <si>
+    <t>Improved UI default state.</t>
+  </si>
+  <si>
+    <t>Final check of links shows Refund Receipt Download button is giving an internal error.</t>
+  </si>
+  <si>
+    <t>Verified DELETE endpoint correctly fetches data needed for receipt PDF before deletion; fixed minor SQL variable in DELETE handler.</t>
+  </si>
+  <si>
+    <t>Final check on API links.</t>
+  </si>
+  <si>
+    <t>Final deployment check on Streamlit Cloud results in slow startup due to large initial data fetch.</t>
+  </si>
+  <si>
+    <t>Verified requirements.txt is minimal and confirmed the use of st.cache could be added later for static API fetches.</t>
+  </si>
+  <si>
+    <t>Final deployment verification.</t>
   </si>
 </sst>
 </file>
@@ -113,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -122,15 +284,21 @@
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="&quot;Google Sans Text&quot;"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="&quot;Google Sans Text&quot;"/>
+    </font>
+    <font>
+      <color rgb="FF444746"/>
+      <name val="&quot;Google Sans Text&quot;"/>
     </font>
   </fonts>
   <fills count="3">
@@ -153,18 +321,27 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -382,10 +559,15 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="12.38"/>
+    <col customWidth="1" min="4" max="4" width="33.0"/>
+    <col customWidth="1" min="7" max="7" width="20.25"/>
+    <col customWidth="1" min="8" max="8" width="36.25"/>
+    <col customWidth="1" min="9" max="9" width="18.5"/>
+    <col customWidth="1" min="10" max="10" width="17.88"/>
+    <col customWidth="1" min="11" max="11" width="24.25"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="36.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,146 +601,727 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45929.0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45929.0</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5">
         <v>45935.0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45935.0</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45937.0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45937.0</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45942.0</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45942.0</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45944.0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45944.0</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45948.0</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45948.0</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45951.0</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45951.0</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45954.0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45954.0</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45955.0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45955.0</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45956.0</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45956.0</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45962.0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3">
-        <v>45935.0</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3">
-        <v>45948.0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="3">
-        <v>45948.0</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3">
-        <v>45953.0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="H12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45962.0</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45964.0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="5">
+        <v>45964.0</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45967.0</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="3">
-        <v>45953.0</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3">
-        <v>45956.0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="H14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="5">
+        <v>45967.0</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45970.0</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="5">
+        <v>45970.0</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45973.0</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="5">
+        <v>45973.0</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45976.0</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="5">
+        <v>45976.0</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45978.0</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="5">
+        <v>45978.0</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45980.0</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="5">
+        <v>45980.0</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45982.0</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="3">
-        <v>45956.0</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="H20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="5">
+        <v>45982.0</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5">
+        <v>45983.0</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="5">
+        <v>45983.0</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
